--- a/src/test/resources/Weights_Limits.xlsx
+++ b/src/test/resources/Weights_Limits.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyacheslavlapin/IdeaProjects/experiments/poi-excel/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alapina\IdeaProjects\ANM_tests\poi-excel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A9C5E-35A7-B04F-B7A6-741D2CA58508}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>10503724645115</t>
   </si>
@@ -77,18 +76,12 @@
   </si>
   <si>
     <t>АЛБАНИЯ</t>
-  </si>
-  <si>
-    <t>EA220681765CZ</t>
-  </si>
-  <si>
-    <t>МАДАГАСКАР</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,20 +400,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="40" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -431,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -442,7 +435,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -453,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -464,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -475,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -493,20 +486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,10 +518,10 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,10 +529,10 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -547,18 +540,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>31501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>30000</v>
+        <v>31500</v>
       </c>
     </row>
   </sheetData>
